--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>579642.9800400217</v>
+        <v>576361.3121643836</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514382</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.265316057196693</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,28 +975,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
@@ -1148,10 +1148,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,76 +1367,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G11" t="n">
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>124.3469240739945</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1886,31 +1886,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>147.9845033927267</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2090,19 +2090,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>131.7659851933074</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>179.4424403754322</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,31 +2315,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,22 +2403,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>27.66810444083383</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>182.7004482653351</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
     </row>
     <row r="26">
@@ -2561,22 +2561,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>4.089654531614567</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2688,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,16 +2883,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>11.53180811788352</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>89.20720739599011</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2934,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3035,67 +3035,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>54.27206683872637</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,22 +3156,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3266,25 +3266,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3354,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.92775320576783</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3509,22 +3509,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>21.85442600983729</v>
       </c>
     </row>
     <row r="39">
@@ -3585,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>77.92691371295918</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>115.1545305496692</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3758,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,19 +3785,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>21.77931370777366</v>
+        <v>11.76766107140524</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3916,43 +3916,43 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="V44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4056,28 +4056,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>152.2207240410305</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W2" t="n">
-        <v>223.6192102101089</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4413,13 +4413,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4480,7 +4480,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4650,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4787,16 +4787,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4884,19 +4884,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4984,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E11" t="n">
-        <v>962.2293816994886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>487.2836868729568</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V12" t="n">
-        <v>487.2836868729568</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W12" t="n">
-        <v>487.2836868729568</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X12" t="n">
-        <v>487.2836868729568</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y12" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5218,7 +5218,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>816.3871559026832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>667.4527462414319</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5388,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5452,10 +5452,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
         <v>19.28114311021272</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5598,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5628,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="19">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>152.3780978509273</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="V21" t="n">
-        <v>360.2295980564601</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="W21" t="n">
-        <v>360.2295980564601</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="X21" t="n">
-        <v>152.3780978509273</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="Y21" t="n">
-        <v>152.3780978509273</v>
+        <v>508.2152912359765</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5941,19 +5941,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>492.48569440222</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>492.48569440222</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>492.48569440222</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>333.2482393967645</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>186.7136814236494</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>47.98285600626494</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6096,22 +6096,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="25">
@@ -6166,28 +6166,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6312,10 +6312,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6336,19 +6336,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="28">
@@ -6361,22 +6361,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I28" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V29" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U29" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="X29" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>235.3523315264278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>235.3523315264278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>235.3523315264278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,43 +6549,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>873.9488652116563</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="W30" t="n">
-        <v>384.2867411876791</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X30" t="n">
-        <v>384.2867411876791</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y30" t="n">
-        <v>384.2867411876791</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="31">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.424473941237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>567.60420440717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6786,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W33" t="n">
-        <v>790.6398109613051</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>315.6850394389064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>72.23626279480629</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>72.23626279480629</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E35" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>315.6850394389064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>315.6850394389064</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>340.7491288998418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>202.0183034824573</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>88.64916789003665</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>487.2836868729568</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7072,10 +7072,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V38" t="n">
-        <v>559.1338160830064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W38" t="n">
-        <v>559.1338160830064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>257.2326523711826</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C39" t="n">
-        <v>257.2326523711826</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D39" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>97.99519736572705</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>847.7394478847077</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>619.5158296210968</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>619.5158296210968</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="X39" t="n">
-        <v>257.2326523711826</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y39" t="n">
-        <v>257.2326523711826</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U41" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V41" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W41" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X41" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>350.2064472052342</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="C42" t="n">
-        <v>350.2064472052342</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="D42" t="n">
-        <v>201.2720375439829</v>
+        <v>190.405124450421</v>
       </c>
       <c r="E42" t="n">
-        <v>42.03458253852739</v>
+        <v>31.1676694449655</v>
       </c>
       <c r="F42" t="n">
-        <v>42.03458253852739</v>
+        <v>31.1676694449655</v>
       </c>
       <c r="G42" t="n">
-        <v>42.03458253852739</v>
+        <v>31.1676694449655</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>518.4217842253022</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>518.4217842253022</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y42" t="n">
-        <v>518.4217842253022</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7600,19 +7600,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7673,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X44" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y44" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>566.8500717543842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7758,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7849,7 +7849,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8061,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,13 +8778,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O12" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,22 +9246,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10197,10 +10197,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,16 +10434,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612551</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,13 +10911,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,28 +22589,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22626,25 +22626,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22720,10 +22720,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22796,16 +22796,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,25 +22829,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22863,28 +22863,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,19 +22911,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22963,7 +22963,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>46.33425578299912</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23027,7 +23027,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>380.1208739992256</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
@@ -23036,10 +23036,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23200,10 +23200,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,31 +23255,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>174.9274946967228</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23346,19 +23346,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>20.72228831938942</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23458,10 +23458,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23516,7 +23516,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,19 +23540,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>195.8925415817687</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,19 +23628,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23732,16 +23732,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23829,7 +23829,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23868,10 +23868,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>84.81608375669853</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23978,19 +23978,19 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,10 +24020,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>32.75045248984648</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>40.94251379500832</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,16 +24057,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>20.72228831938943</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,31 +24203,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>179.3857036041842</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,22 +24291,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>84.56733979566263</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,22 +24336,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>50.10013888409014</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24406,7 +24406,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>171.5597290184211</v>
       </c>
     </row>
     <row r="26">
@@ -24449,22 +24449,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>191.584972997977</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24500,16 +24500,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>333.812370168306</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>168.6188444567012</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24537,7 +24537,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24576,10 +24576,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,13 +24731,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,16 +24771,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>125.8117090453271</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,7 +24813,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,7 +24822,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24923,19 +24923,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24968,22 +24968,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>221.2863534910952</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,31 +24993,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>118.4364321495894</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,22 +25044,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25154,25 +25154,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,10 +25196,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25208,16 +25208,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25242,19 +25242,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>21.46887964564725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25312,13 +25312,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25397,22 +25397,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25448,16 +25448,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>317.3055321907214</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>364.3835126462163</v>
       </c>
     </row>
     <row r="39">
@@ -25473,13 +25473,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>67.1422986804247</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25521,19 +25521,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>85.01019814515239</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>380.9243455904444</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25646,10 +25646,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,19 +25673,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>150.9660159552153</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25722,13 +25722,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>90.45613052872281</v>
+        <v>100.4677831650912</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,10 +25755,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25770,7 +25770,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25804,7 +25804,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>322.4562579625502</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V44" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25944,28 +25944,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>20.48777494728526</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26041,7 +26041,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.006604441</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20952.6552922454</v>
+        <v>-21344.88553779093</v>
       </c>
       <c r="C6" t="n">
-        <v>59816.77623930234</v>
+        <v>59424.54599375679</v>
       </c>
       <c r="D6" t="n">
-        <v>59816.77623930232</v>
+        <v>59424.54599375679</v>
       </c>
       <c r="E6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375679</v>
       </c>
       <c r="F6" t="n">
-        <v>93444.37623930231</v>
+        <v>93052.14599375679</v>
       </c>
       <c r="G6" t="n">
-        <v>93444.37623930236</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="H6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375679</v>
       </c>
       <c r="I6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="J6" t="n">
-        <v>30384.4336401961</v>
+        <v>29992.20339465055</v>
       </c>
       <c r="K6" t="n">
-        <v>93444.37623930232</v>
+        <v>93052.14599375676</v>
       </c>
       <c r="L6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375679</v>
       </c>
       <c r="M6" t="n">
-        <v>93444.37623930236</v>
+        <v>93052.14599375679</v>
       </c>
       <c r="N6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="O6" t="n">
-        <v>93444.37623930236</v>
+        <v>93052.14599375676</v>
       </c>
       <c r="P6" t="n">
-        <v>93444.37623930234</v>
+        <v>93052.14599375679</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,16 +34781,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,13 +35498,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O12" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36917,10 +36917,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>43.28534947792182</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,13 +37631,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
